--- a/flixOpt_excel/resources/ExcelTemplates/TemplateAll.xlsx
+++ b/flixOpt_excel/resources/ExcelTemplates/TemplateAll.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Documents/Uni/Diplomarbeit/Energiesystemmodell/flixOpt/flixOpt-main/Own Modells/proj_fin/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Documents/Dokumente - eigene/Arbeit_SE_Trainee/Repositories/flixOpt_excel_repo/flixOpt_excel/resources/ExcelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B19440E-6707-1146-9B5D-4AD9D0B2186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63B4464-56F4-4C49-9F78-F300962CE5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_README" sheetId="1" r:id="rId1"/>
-    <sheet name="_init" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>For every run, all sheets that dont start with _ will get deleted and rewritten</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,7 +42,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,9 +87,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ion">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ion">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -89,48 +97,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1E5155"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="EBEBEB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="B01513"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EA6312"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="E6B729"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="6AAC90"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="54849A"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="9E5E9B"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="58C1BA"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="9DFFCB"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ion">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -153,18 +161,19 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -187,9 +196,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ion">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -198,66 +208,52 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="64000"/>
+                <a:lumMod val="118000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="92000"/>
+                <a:alpha val="100000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="98000"/>
+                <a:lumMod val="114000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="84000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -266,28 +262,22 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="45000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="63500" dist="38100" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -295,12 +285,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -312,83 +300,71 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="97000"/>
+                <a:hueMod val="88000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="124000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:tint val="96000"/>
+                <a:shade val="88000"/>
+                <a:hueMod val="108000"/>
+                <a:satMod val="164000"/>
+                <a:lumMod val="76000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect l="45000" t="65000" r="125000" b="100000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
+              <a:schemeClr val="phClr">
+                <a:shade val="69000"/>
+                <a:hueMod val="108000"/>
+                <a:satMod val="164000"/>
+                <a:lumMod val="74000"/>
+              </a:schemeClr>
+              <a:schemeClr val="phClr">
+                <a:tint val="96000"/>
+                <a:hueMod val="88000"/>
+                <a:satMod val="140000"/>
+                <a:lumMod val="132000"/>
+              </a:schemeClr>
+            </a:duotone>
+          </a:blip>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Ion" id="{B8441ADB-2E43-4AF7-B97A-BD870242C6A8}" vid="{292E63A9-BB86-4E3D-B92A-7223C6510D2E}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>